--- a/fixtures/output/01043110000366247_acute_chem_unpop.xlsx
+++ b/fixtures/output/01043110000366247_acute_chem_unpop.xlsx
@@ -100,7 +100,7 @@
     <t>ethyl benzene</t>
   </si>
   <si>
-    <t>6.7e-01</t>
+    <t>6.5e-01</t>
   </si>
   <si>
     <t>na</t>
@@ -115,13 +115,13 @@
     <t>toluene</t>
   </si>
   <si>
-    <t>5.7e-01</t>
+    <t>5.6e-01</t>
   </si>
   <si>
     <t>xylenes (mixed)</t>
   </si>
   <si>
-    <t>2.0e+01</t>
+    <t>1.9e+01</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>0.671894620274</v>
+        <v>0.6544732734249999</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="Q2" t="n">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="R2" t="n">
         <v>234</v>
@@ -613,16 +613,16 @@
         <v>29</v>
       </c>
       <c r="V2" t="n">
-        <v>514441</v>
+        <v>514485</v>
       </c>
       <c r="W2" t="n">
-        <v>3776771</v>
+        <v>3776824</v>
       </c>
       <c r="X2" t="n">
-        <v>34.1317104297</v>
+        <v>34.1321878108</v>
       </c>
       <c r="Y2" t="n">
-        <v>-86.84338176750001</v>
+        <v>-86.8429036877</v>
       </c>
       <c r="Z2" t="s">
         <v>30</v>
@@ -636,7 +636,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>0.570476564384</v>
+        <v>0.555684854795</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="Q3" t="n">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="R3" t="n">
         <v>234</v>
@@ -696,16 +696,16 @@
         <v>29</v>
       </c>
       <c r="V3" t="n">
-        <v>514441</v>
+        <v>514485</v>
       </c>
       <c r="W3" t="n">
-        <v>3776771</v>
+        <v>3776824</v>
       </c>
       <c r="X3" t="n">
-        <v>34.1317104297</v>
+        <v>34.1321878108</v>
       </c>
       <c r="Y3" t="n">
-        <v>-86.84338176750001</v>
+        <v>-86.8429036877</v>
       </c>
       <c r="Z3" t="s">
         <v>30</v>
@@ -719,7 +719,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="n">
-        <v>19.7258118707</v>
+        <v>19.2143474236</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -761,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="n">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="R4" t="n">
         <v>234</v>
@@ -779,16 +779,16 @@
         <v>29</v>
       </c>
       <c r="V4" t="n">
-        <v>514441</v>
+        <v>514485</v>
       </c>
       <c r="W4" t="n">
-        <v>3776771</v>
+        <v>3776824</v>
       </c>
       <c r="X4" t="n">
-        <v>34.1317104297</v>
+        <v>34.1321878108</v>
       </c>
       <c r="Y4" t="n">
-        <v>-86.84338176750001</v>
+        <v>-86.8429036877</v>
       </c>
       <c r="Z4" t="s">
         <v>30</v>

--- a/fixtures/output/01043110000366247_acute_chem_unpop.xlsx
+++ b/fixtures/output/01043110000366247_acute_chem_unpop.xlsx
@@ -129,10 +129,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -158,8 +166,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -466,85 +475,85 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/fixtures/output/01043110000366247_acute_chem_unpop.xlsx
+++ b/fixtures/output/01043110000366247_acute_chem_unpop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>Pollutant</t>
   </si>
@@ -100,28 +100,31 @@
     <t>ethyl benzene</t>
   </si>
   <si>
-    <t>6.5e-01</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>Polar</t>
+    <t>1.6e+00</t>
+  </si>
+  <si>
+    <t>01009</t>
+  </si>
+  <si>
+    <t>1009U01294</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Discrete</t>
   </si>
   <si>
     <t>toluene</t>
   </si>
   <si>
-    <t>5.6e-01</t>
+    <t>1.4e+00</t>
   </si>
   <si>
     <t>xylenes (mixed)</t>
   </si>
   <si>
-    <t>1.9e+01</t>
+    <t>4.7e+01</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6544732734249999</v>
+        <v>1.59474299178</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -604,51 +607,51 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>180</v>
+        <v>527</v>
       </c>
       <c r="Q2" t="n">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="R2" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="S2" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="T2" t="s">
         <v>29</v>
       </c>
       <c r="U2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V2" t="n">
-        <v>514485</v>
+        <v>34</v>
       </c>
       <c r="W2" t="n">
-        <v>3776824</v>
+        <v>3776135</v>
       </c>
       <c r="X2" t="n">
-        <v>34.1321878108</v>
+        <v>34.12597</v>
       </c>
       <c r="Y2" t="n">
-        <v>-86.8429036877</v>
+        <v>-86.842941</v>
       </c>
       <c r="Z2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="n">
-        <v>0.555684854795</v>
+        <v>1.35402706849</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
         <v>250</v>
@@ -687,51 +690,51 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>180</v>
+        <v>527</v>
       </c>
       <c r="Q3" t="n">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="R3" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="S3" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="T3" t="s">
         <v>29</v>
       </c>
       <c r="U3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V3" t="n">
-        <v>514485</v>
+        <v>34</v>
       </c>
       <c r="W3" t="n">
-        <v>3776824</v>
+        <v>3776135</v>
       </c>
       <c r="X3" t="n">
-        <v>34.1321878108</v>
+        <v>34.12597</v>
       </c>
       <c r="Y3" t="n">
-        <v>-86.8429036877</v>
+        <v>-86.842941</v>
       </c>
       <c r="Z3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="n">
-        <v>19.2143474236</v>
+        <v>46.8192470795</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
         <v>560</v>
@@ -770,40 +773,40 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>180</v>
+        <v>527</v>
       </c>
       <c r="Q4" t="n">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="R4" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="S4" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="T4" t="s">
         <v>29</v>
       </c>
       <c r="U4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V4" t="n">
-        <v>514485</v>
+        <v>34</v>
       </c>
       <c r="W4" t="n">
-        <v>3776824</v>
+        <v>3776135</v>
       </c>
       <c r="X4" t="n">
-        <v>34.1321878108</v>
+        <v>34.12597</v>
       </c>
       <c r="Y4" t="n">
-        <v>-86.8429036877</v>
+        <v>-86.842941</v>
       </c>
       <c r="Z4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
